--- a/Application/Appliers.xlsx
+++ b/Application/Appliers.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghansheng/Desktop/EduSpark/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghansheng/Desktop/EduSpark/Application/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7260DFB-FA3F-A946-8B4F-2B31C996DD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9AC841-7D2C-8146-A80F-E98D8A4BC4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="申请者" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1267,10 +1267,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
